--- a/TP2/Resultados/Canal2-2daParte.xlsx
+++ b/TP2/Resultados/Canal2-2daParte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ramiro\Documents\Facultad\3ro\2do Cuatri\Teoria de la Informacion\Repositorio\TP2\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D577C74-A3D0-443C-98EB-04E75B58E068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E659F4-7375-4A69-8FA4-A4A447BE7395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="360" windowWidth="16380" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11730" yWindow="705" windowWidth="16380" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Simbolo</t>
   </si>
@@ -85,24 +85,6 @@
     <t>Matriz P(a/b)</t>
   </si>
   <si>
-    <t>H(A,b1)</t>
-  </si>
-  <si>
-    <t>H(A,b2)</t>
-  </si>
-  <si>
-    <t>H(A,b3)</t>
-  </si>
-  <si>
-    <t>H(A/B)</t>
-  </si>
-  <si>
-    <t>H(A)</t>
-  </si>
-  <si>
-    <t>I(A,B)</t>
-  </si>
-  <si>
     <t>INFORMACION MUTUA</t>
   </si>
   <si>
@@ -115,10 +97,52 @@
     <t>P(B4)</t>
   </si>
   <si>
-    <t>H(A,b4)</t>
-  </si>
-  <si>
     <t>Canal 2</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>H(B)</t>
+  </si>
+  <si>
+    <t>H(B,s1)</t>
+  </si>
+  <si>
+    <t>H(B,s2)</t>
+  </si>
+  <si>
+    <t>H(B,s3)</t>
+  </si>
+  <si>
+    <t>H(B,s4)</t>
+  </si>
+  <si>
+    <t>H(S,b1)</t>
+  </si>
+  <si>
+    <t>H(S,b2)</t>
+  </si>
+  <si>
+    <t>H(S,b3)</t>
+  </si>
+  <si>
+    <t>H(S,b4)</t>
+  </si>
+  <si>
+    <t>H(S/B)</t>
+  </si>
+  <si>
+    <t>H(S)</t>
+  </si>
+  <si>
+    <t>I(S,B)</t>
+  </si>
+  <si>
+    <t>I(B,S)</t>
+  </si>
+  <si>
+    <t>H(B/S)</t>
   </si>
 </sst>
 </file>
@@ -190,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,6 +259,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{211A5120-2F9F-49FA-ACD4-FE9C8BCFF29E}" name="Tabla1" displayName="Tabla1" ref="A22:E26" totalsRowShown="0">
+  <autoFilter ref="A22:E26" xr:uid="{211A5120-2F9F-49FA-ACD4-FE9C8BCFF29E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3DBBB0F7-3F3A-468A-AB55-7C604B324190}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{ECB0377B-48F0-4845-A21F-AB955E0BE684}" name="S1"/>
+    <tableColumn id="3" xr3:uid="{D1F3852C-DBA2-4BB4-9790-62CAAB6FCB26}" name="S2"/>
+    <tableColumn id="4" xr3:uid="{CB9BF23A-8D1C-49A2-8173-06F67A63FF9B}" name="S3"/>
+    <tableColumn id="5" xr3:uid="{D178F3C6-320F-49FF-8AF0-9C129CECED83}" name="S4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,14 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -515,7 +555,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" s="9"/>
     </row>
@@ -551,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -681,7 +721,7 @@
       <c r="J15" s="8"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -690,7 +730,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -700,7 +740,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -709,16 +749,23 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <f>B4*H5+B5*H6+B6*H7+B7*H8</f>
         <v>0.22999999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <f>E5*LOG(1/E5,2)+F5*LOG(1/F5,2)+G5*LOG(1/G5,2)+H5*LOG(1/H5,2)</f>
+        <v>1.9709505944546688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
@@ -726,8 +773,18 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L23" si="0">E6*LOG(1/E6,2)+F6*LOG(1/F6,2)+G6*LOG(1/G6,2)+H6*LOG(1/H6,2)</f>
+        <v>1.9709505944546686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -740,8 +797,15 @@
       <c r="E22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>1.9709505944546688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -762,14 +826,21 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I23">
         <f>B23*LOG(1/B23,2) +C23*LOG(1/C23,2) + D23*LOG(1/D23,2) + E23*LOG(1/E23,2)</f>
         <v>1.974937501201927</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23">
+        <f>E8*LOG(1/E8,2)+F8*LOG(1/F8,2)+G8*LOG(1/G8,2)+H8*LOG(1/H8,2)</f>
+        <v>1.8954618442383218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -790,14 +861,14 @@
         <v>0.21428571428571425</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I24">
         <f>B24*LOG(1/B24,2) +C24*LOG(1/C24,2) + D24*LOG(1/D24,2) + E24*LOG(1/E24,2)</f>
         <v>1.9299111709758701</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -818,16 +889,16 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I25">
         <f>B25*LOG(1/B25,2) +C25*LOG(1/C25,2) + D25*LOG(1/D25,2) + E25*LOG(1/E25,2)</f>
         <v>1.9808259362290785</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <f>H5*B4/B20</f>
@@ -846,50 +917,76 @@
         <v>8.695652173913046E-2</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I26">
         <f>B26*LOG(1/B26,2) +C26*LOG(1/C26,2) + D26*LOG(1/D26,2) + E26*LOG(1/E26,2)</f>
         <v>1.8475239116381137</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I27" s="6">
         <f>B17*I23+B18*I24+B19*I25+B20*I26</f>
         <v>1.9343204588449274</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27">
+        <f>B4*L20+B5*L21+B6*L22+B7*L23</f>
+        <v>1.9558528444113994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H29" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I29" s="5">
         <f>B4*LOG(1/B4,2)+B5*LOG(1/B5,2)+B6*LOG(1/B6,2)+B7*LOG(1/B7,2)</f>
         <v>1.9709505944546686</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29">
+        <f>B17*LOG(1/B17,2)+B18*LOG(1/B18,2)+B19*LOG(1/B19,2)+B20*LOG(1/B20,2)</f>
+        <v>1.9924829800211408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I31" s="6">
         <f>I29-I27</f>
         <v>3.6630135609741155E-2</v>
       </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31">
+        <f>L29-L27</f>
+        <v>3.6630135609741377E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -902,5 +999,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>